--- a/biology/Zoologie/Anthribus_nebulosus/Anthribus_nebulosus.xlsx
+++ b/biology/Zoologie/Anthribus_nebulosus/Anthribus_nebulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthribus nebulosus est une espèce d'insectes coléoptères de la famille des Anthribidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, répandu en Europe, du Portugal à la Scandinavie, à la Russie ; Moyen Orient.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit coléoptère brunâtre (au corps long d'environ 3,5 mm), prédateur, s'attaque aux cochenilles ainsi que sa larve mobile grâce à ses pattes (à l'instar des espèces de coccinelles aphidiphages). C'est donc un auxiliaire pouvant être utilisé dans la lutte biologique contre des insectes nuisibles notamment de la vigne en France.
 </t>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anthribus nebulosus J.R.Forster, 1770[1],[2].
-Anthribus nebulosus a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anthribus nebulosus J.R.Forster, 1770,.
+Anthribus nebulosus a pour synonymes :
 Amblycerus nebulosus (J.R.Forster, 1770)
 Amblycerus varius (J.C.Fabricius, 1787)
 Anthribus gavoyi Chobaut, 1922
@@ -624,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Johann Reinhold Forster, A catalogue of British insects, Warrington, printed by William Eyres, 1770, 69 p. (lire en ligne), p. 10.</t>
         </is>
